--- a/qml_experiment_log.xlsx
+++ b/qml_experiment_log.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z2"/>
+  <dimension ref="A1:Z13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -655,6 +655,954 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>AAPL, MSFT, GOOGL</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Auto-log: Q=2, D=1, Skip=concat</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>4</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>16</v>
+      </c>
+      <c r="H3" t="n">
+        <v>20</v>
+      </c>
+      <c r="I3" t="b">
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>concat</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="b">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="b">
+        <v>0</v>
+      </c>
+      <c r="R3" t="inlineStr"/>
+      <c r="S3" t="n">
+        <v>15</v>
+      </c>
+      <c r="T3" t="n">
+        <v>2</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.000255042755018989</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0.003011628150063111</v>
+      </c>
+      <c r="W3" t="n">
+        <v>6.007365226745605</v>
+      </c>
+      <c r="X3" t="n">
+        <v>8.185674667358398</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>3.779130935668945</v>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>GridSearch | Qubits=2, Depth=1, RotParams=1</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>AAPL, MSFT, GOOGL</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Auto-log: Q=2, D=1, Skip=concat</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>4</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>16</v>
+      </c>
+      <c r="H4" t="n">
+        <v>20</v>
+      </c>
+      <c r="I4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="n">
+        <v>2</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>concat</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="b">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="b">
+        <v>0</v>
+      </c>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="n">
+        <v>15</v>
+      </c>
+      <c r="T4" t="n">
+        <v>2</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0.0002344165567340864</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0.005440934414435376</v>
+      </c>
+      <c r="W4" t="n">
+        <v>8.832230567932129</v>
+      </c>
+      <c r="X4" t="n">
+        <v>12.30368328094482</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>5.388018131256104</v>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>GridSearch | Qubits=2, Depth=1, RotParams=2</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>AAPL, MSFT, GOOGL</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Auto-log: Q=2, D=1, Skip=concat</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>16</v>
+      </c>
+      <c r="H5" t="n">
+        <v>20</v>
+      </c>
+      <c r="I5" t="b">
+        <v>1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="n">
+        <v>3</v>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>concat</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="b">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="b">
+        <v>0</v>
+      </c>
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="n">
+        <v>15</v>
+      </c>
+      <c r="T5" t="n">
+        <v>2</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0.0005710490155213344</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0.01530708741406573</v>
+      </c>
+      <c r="W5" t="n">
+        <v>14.27128314971924</v>
+      </c>
+      <c r="X5" t="n">
+        <v>19.29075622558594</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>8.712226867675781</v>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>GridSearch | Qubits=2, Depth=1, RotParams=3</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>AAPL, MSFT, GOOGL</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Auto-log: Q=2, D=2, Skip=concat</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>4</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>16</v>
+      </c>
+      <c r="H6" t="n">
+        <v>20</v>
+      </c>
+      <c r="I6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>concat</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="b">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="b">
+        <v>0</v>
+      </c>
+      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="n">
+        <v>15</v>
+      </c>
+      <c r="T6" t="n">
+        <v>2</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0.0006634597478857377</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0.0155616107702062</v>
+      </c>
+      <c r="W6" t="n">
+        <v>15.52224540710449</v>
+      </c>
+      <c r="X6" t="n">
+        <v>21.07040405273438</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>9.503280639648438</v>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>GridSearch | Qubits=2, Depth=2, RotParams=1</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>AAPL, MSFT, GOOGL</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Auto-log: Q=2, D=2, Skip=concat</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>4</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>16</v>
+      </c>
+      <c r="H7" t="n">
+        <v>20</v>
+      </c>
+      <c r="I7" t="b">
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2</v>
+      </c>
+      <c r="L7" t="n">
+        <v>2</v>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>concat</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="b">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="b">
+        <v>0</v>
+      </c>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="n">
+        <v>15</v>
+      </c>
+      <c r="T7" t="n">
+        <v>2</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0.0002586269404267288</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0.002529810279350173</v>
+      </c>
+      <c r="W7" t="n">
+        <v>5.138525009155273</v>
+      </c>
+      <c r="X7" t="n">
+        <v>6.689810276031494</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>3.314240455627441</v>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>GridSearch | Qubits=2, Depth=2, RotParams=2</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>AAPL, MSFT, GOOGL</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Auto-log: Q=2, D=2, Skip=concat</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>4</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>16</v>
+      </c>
+      <c r="H8" t="n">
+        <v>20</v>
+      </c>
+      <c r="I8" t="b">
+        <v>1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>2</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2</v>
+      </c>
+      <c r="L8" t="n">
+        <v>3</v>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>concat</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="b">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="b">
+        <v>0</v>
+      </c>
+      <c r="R8" t="inlineStr"/>
+      <c r="S8" t="n">
+        <v>15</v>
+      </c>
+      <c r="T8" t="n">
+        <v>2</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0.0002199051265980667</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0.0007182202997624854</v>
+      </c>
+      <c r="W8" t="n">
+        <v>3.505960464477539</v>
+      </c>
+      <c r="X8" t="n">
+        <v>4.556615352630615</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>2.402804374694824</v>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>GridSearch | Qubits=2, Depth=2, RotParams=3</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>AAPL, MSFT, GOOGL</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Auto-log: Q=2, D=3, Skip=concat</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>4</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>16</v>
+      </c>
+      <c r="H9" t="n">
+        <v>20</v>
+      </c>
+      <c r="I9" t="b">
+        <v>1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>2</v>
+      </c>
+      <c r="K9" t="n">
+        <v>3</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>concat</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="b">
+        <v>0</v>
+      </c>
+      <c r="R9" t="inlineStr"/>
+      <c r="S9" t="n">
+        <v>15</v>
+      </c>
+      <c r="T9" t="n">
+        <v>2</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0.0002966019335369136</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0.003413392598691218</v>
+      </c>
+      <c r="W9" t="n">
+        <v>7.298486709594727</v>
+      </c>
+      <c r="X9" t="n">
+        <v>9.91327953338623</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>4.574366092681885</v>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>GridSearch | Qubits=2, Depth=3, RotParams=1</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>AAPL, MSFT, GOOGL</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Auto-log: Q=-, D=-, Skip=concat</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>4</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>16</v>
+      </c>
+      <c r="H10" t="n">
+        <v>20</v>
+      </c>
+      <c r="I10" t="b">
+        <v>0</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>concat</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="b">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="b">
+        <v>0</v>
+      </c>
+      <c r="R10" t="inlineStr"/>
+      <c r="S10" t="n">
+        <v>1</v>
+      </c>
+      <c r="T10" t="n">
+        <v>2</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0.1208442434609095</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0.2430056145692125</v>
+      </c>
+      <c r="W10" t="n">
+        <v>80.66497802734375</v>
+      </c>
+      <c r="X10" t="n">
+        <v>84.46616363525391</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>53.12450408935547</v>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>GridSearch | Qubits=2, Depth=1, RotParams=3</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>AAPL, MSFT, GOOGL</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Auto-log: Q=-, D=-, Skip=concat</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>4</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>16</v>
+      </c>
+      <c r="H11" t="n">
+        <v>20</v>
+      </c>
+      <c r="I11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>concat</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="b">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="b">
+        <v>0</v>
+      </c>
+      <c r="R11" t="inlineStr"/>
+      <c r="S11" t="n">
+        <v>1</v>
+      </c>
+      <c r="T11" t="n">
+        <v>2</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0.1208442421729102</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0.243005628638128</v>
+      </c>
+      <c r="W11" t="n">
+        <v>80.66497802734375</v>
+      </c>
+      <c r="X11" t="n">
+        <v>84.46616363525391</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>53.12450790405273</v>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>GridSearch | Qubits=2, Depth=1, RotParams=3</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>AAPL, MSFT, GOOGL</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Auto-log: Q=-, D=-, Skip=concat</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>4</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>16</v>
+      </c>
+      <c r="H12" t="n">
+        <v>20</v>
+      </c>
+      <c r="I12" t="b">
+        <v>0</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>concat</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="b">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="b">
+        <v>0</v>
+      </c>
+      <c r="R12" t="inlineStr"/>
+      <c r="S12" t="n">
+        <v>1</v>
+      </c>
+      <c r="T12" t="n">
+        <v>2</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0.1208442424206023</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0.2430056196419483</v>
+      </c>
+      <c r="W12" t="n">
+        <v>80.66497802734375</v>
+      </c>
+      <c r="X12" t="n">
+        <v>84.46616363525391</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>53.12450790405273</v>
+      </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>GridSearch | Qubits=2, Depth=1, RotParams=3</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>AAPL, MSFT, GOOGL</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Auto-log: Q=-, D=-, Skip=concat</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>4</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>16</v>
+      </c>
+      <c r="H13" t="n">
+        <v>20</v>
+      </c>
+      <c r="I13" t="b">
+        <v>0</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>concat</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="b">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="b">
+        <v>0</v>
+      </c>
+      <c r="R13" t="inlineStr"/>
+      <c r="S13" t="n">
+        <v>1</v>
+      </c>
+      <c r="T13" t="n">
+        <v>2</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0.1208442417865104</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0.2430056182548721</v>
+      </c>
+      <c r="W13" t="n">
+        <v>80.66497802734375</v>
+      </c>
+      <c r="X13" t="n">
+        <v>84.46616363525391</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>53.12450790405273</v>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>GridSearch | Qubits=2, Depth=1, RotParams=3</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
